--- a/templates_es/vocabulary_es.xlsx
+++ b/templates_es/vocabulary_es.xlsx
@@ -755,6 +755,9 @@
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B17" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
@@ -845,6 +848,9 @@
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B21" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
@@ -986,6 +992,9 @@
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B27" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1027,6 +1036,9 @@
     <row r="29">
       <c r="A29" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="B29" s="8" t="b">
+        <v>0</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>34</v>
